--- a/Code/Results/Cases/Case_10_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_10_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.49266632314295</v>
+        <v>13.58784882291832</v>
       </c>
       <c r="C2">
-        <v>18.96828366782543</v>
+        <v>6.325036032634143</v>
       </c>
       <c r="D2">
-        <v>4.333588960490924</v>
+        <v>4.018729591741262</v>
       </c>
       <c r="E2">
-        <v>29.21382029618269</v>
+        <v>6.675667928218308</v>
       </c>
       <c r="F2">
-        <v>18.59124872237463</v>
+        <v>27.95711846438311</v>
       </c>
       <c r="G2">
-        <v>2.071584505415577</v>
+        <v>35.5521934873903</v>
       </c>
       <c r="H2">
-        <v>3.159216038339132</v>
+        <v>3.689760432574523</v>
       </c>
       <c r="I2">
-        <v>3.138252493947185</v>
+        <v>4.12434287724462</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>12.30336346931267</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>19.76661618030011</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.428865654776807</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.760497927786641</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>10.89075917297443</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.529296671063212</v>
       </c>
       <c r="Q2">
-        <v>14.5687144452271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>10.3053709137824</v>
+      </c>
+      <c r="R2">
+        <v>14.71612607155098</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.88573587628169</v>
+        <v>12.83658125635377</v>
       </c>
       <c r="C3">
-        <v>17.85725570160992</v>
+        <v>5.884912064988304</v>
       </c>
       <c r="D3">
-        <v>4.196859081625459</v>
+        <v>3.881178671659843</v>
       </c>
       <c r="E3">
-        <v>27.32102133038484</v>
+        <v>6.575528601579227</v>
       </c>
       <c r="F3">
-        <v>18.00587086705919</v>
+        <v>27.63890136243104</v>
       </c>
       <c r="G3">
-        <v>2.076468730828436</v>
+        <v>35.14859200941347</v>
       </c>
       <c r="H3">
-        <v>2.90028629522092</v>
+        <v>3.881320081798997</v>
       </c>
       <c r="I3">
-        <v>2.942540537153831</v>
+        <v>4.271973846765123</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.23932607721192</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.72332749907775</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.808093235408156</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.718495405593333</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.29510705883968</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.400125161930159</v>
       </c>
       <c r="Q3">
-        <v>14.3407332244305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.969709153842892</v>
+      </c>
+      <c r="R3">
+        <v>14.85054234995475</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.83970279736576</v>
+        <v>12.34872984699805</v>
       </c>
       <c r="C4">
-        <v>17.14498019991685</v>
+        <v>5.604029048427153</v>
       </c>
       <c r="D4">
-        <v>4.110482788901874</v>
+        <v>3.795813944949781</v>
       </c>
       <c r="E4">
-        <v>26.09414241005118</v>
+        <v>6.512335831552493</v>
       </c>
       <c r="F4">
-        <v>17.64924845131027</v>
+        <v>27.44408781894049</v>
       </c>
       <c r="G4">
-        <v>2.07955589531849</v>
+        <v>34.90386793592874</v>
       </c>
       <c r="H4">
-        <v>2.735997085624268</v>
+        <v>4.003376635505433</v>
       </c>
       <c r="I4">
-        <v>2.819518945045894</v>
+        <v>4.366817973665006</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.19958681557328</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>19.69671799647019</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.074448086113291</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.691575459974914</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>9.912123413509955</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.320907457834052</v>
       </c>
       <c r="Q4">
-        <v>14.2082728333152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.758087480637654</v>
+      </c>
+      <c r="R4">
+        <v>14.93406801569698</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.39827057864807</v>
+        <v>12.13758713557839</v>
       </c>
       <c r="C5">
-        <v>16.86313572588381</v>
+        <v>5.492930193258163</v>
       </c>
       <c r="D5">
-        <v>4.076836119671445</v>
+        <v>3.762171445814582</v>
       </c>
       <c r="E5">
-        <v>25.57764346556439</v>
+        <v>6.485606585785675</v>
       </c>
       <c r="F5">
-        <v>17.49084442949468</v>
+        <v>27.35562996271222</v>
       </c>
       <c r="G5">
-        <v>2.080842831687721</v>
+        <v>34.78900732607156</v>
       </c>
       <c r="H5">
-        <v>2.667542724177149</v>
+        <v>4.054616638762017</v>
       </c>
       <c r="I5">
-        <v>2.769161091993968</v>
+        <v>4.409254343044709</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12.18019705224983</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>19.67884121310449</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.191903227020157</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.679910416921429</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>9.750780375712214</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.28981280379133</v>
       </c>
       <c r="Q5">
-        <v>14.14526399565041</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.669638358281512</v>
+      </c>
+      <c r="R5">
+        <v>14.96677353162441</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.32384007689132</v>
+        <v>12.09511358345761</v>
       </c>
       <c r="C6">
-        <v>16.8353225505169</v>
+        <v>5.481663247554569</v>
       </c>
       <c r="D6">
-        <v>4.073836145152685</v>
+        <v>3.758191492471747</v>
       </c>
       <c r="E6">
-        <v>25.49061016046219</v>
+        <v>6.480467913739596</v>
       </c>
       <c r="F6">
-        <v>17.44754621655228</v>
+        <v>27.3296538809533</v>
       </c>
       <c r="G6">
-        <v>2.081065407239584</v>
+        <v>34.75053446486145</v>
       </c>
       <c r="H6">
-        <v>2.655917759783867</v>
+        <v>4.063646423170851</v>
       </c>
       <c r="I6">
-        <v>2.761577121908168</v>
+        <v>4.419844784530009</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>12.17319058805917</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>19.66729905946778</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.212943043816715</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.677459259071094</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.722440074980069</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.286041331102927</v>
       </c>
       <c r="Q6">
-        <v>14.12160564649061</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.653743534412406</v>
+      </c>
+      <c r="R6">
+        <v>14.9702811421053</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.83321247646425</v>
+        <v>12.32216062952028</v>
       </c>
       <c r="C7">
-        <v>17.19321626836599</v>
+        <v>5.614702664839668</v>
       </c>
       <c r="D7">
-        <v>4.117147111988736</v>
+        <v>3.804424068904471</v>
       </c>
       <c r="E7">
-        <v>26.08648815999262</v>
+        <v>6.511229239357102</v>
       </c>
       <c r="F7">
-        <v>17.60102890494004</v>
+        <v>27.39430149159035</v>
       </c>
       <c r="G7">
-        <v>2.079593170369083</v>
+        <v>34.91134457890655</v>
       </c>
       <c r="H7">
-        <v>2.734610986851889</v>
+        <v>4.005950351226974</v>
       </c>
       <c r="I7">
-        <v>2.820713870448712</v>
+        <v>4.377213803940603</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>12.14690864119616</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>19.6628148699791</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.080114856694305</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.689737600894171</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>9.900256101157179</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.324032916010783</v>
       </c>
       <c r="Q7">
-        <v>14.17126314780701</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.752054782468292</v>
+      </c>
+      <c r="R7">
+        <v>14.92669772836846</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.95016255225594</v>
+        <v>13.29587573920835</v>
       </c>
       <c r="C8">
-        <v>18.65577656276812</v>
+        <v>6.176613055110602</v>
       </c>
       <c r="D8">
-        <v>4.296175493917771</v>
+        <v>3.992211776574285</v>
       </c>
       <c r="E8">
-        <v>28.57366895627258</v>
+        <v>6.642752556464219</v>
       </c>
       <c r="F8">
-        <v>18.33033639464374</v>
+        <v>27.74979413510509</v>
       </c>
       <c r="G8">
-        <v>2.073275125169522</v>
+        <v>35.54649553711238</v>
       </c>
       <c r="H8">
-        <v>3.070445310790362</v>
+        <v>3.758490420476293</v>
       </c>
       <c r="I8">
-        <v>3.073227600650782</v>
+        <v>4.187961154977176</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>12.13155607058121</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.68800493084841</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.560024938472967</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.743513024339075</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10.66534277424427</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.488947364124235</v>
       </c>
       <c r="Q8">
-        <v>14.44169348795232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>10.18124062342128</v>
+      </c>
+      <c r="R8">
+        <v>14.74773477282047</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.63402988064382</v>
+        <v>15.04050139075612</v>
       </c>
       <c r="C9">
-        <v>21.197725204966</v>
+        <v>7.188032253338656</v>
       </c>
       <c r="D9">
-        <v>4.614753228655371</v>
+        <v>4.32624565438952</v>
       </c>
       <c r="E9">
-        <v>32.94140957282742</v>
+        <v>6.8861105371356</v>
       </c>
       <c r="F9">
-        <v>19.85430217178764</v>
+        <v>28.56904904207774</v>
       </c>
       <c r="G9">
-        <v>2.06152701904097</v>
+        <v>36.67940794848856</v>
       </c>
       <c r="H9">
-        <v>3.688970248645137</v>
+        <v>3.303359182405607</v>
       </c>
       <c r="I9">
-        <v>3.5447492924246</v>
+        <v>3.832425189946786</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.26763219067186</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.81583646743203</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.814939349242142</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.84363121378276</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.18138070113625</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.805968375870604</v>
       </c>
       <c r="Q9">
-        <v>15.09616439954949</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.9867482880712</v>
+      </c>
+      <c r="R9">
+        <v>14.42217418900709</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.05482127450283</v>
+        <v>16.12095659141661</v>
       </c>
       <c r="C10">
-        <v>22.928038186333</v>
+        <v>7.864642453857735</v>
       </c>
       <c r="D10">
-        <v>4.874742813704069</v>
+        <v>4.56505404564875</v>
       </c>
       <c r="E10">
-        <v>34.9646762972166</v>
+        <v>7.009451457201492</v>
       </c>
       <c r="F10">
-        <v>20.76645788651782</v>
+        <v>28.921189691218</v>
       </c>
       <c r="G10">
-        <v>2.053507625778628</v>
+        <v>37.63210538673794</v>
       </c>
       <c r="H10">
-        <v>4.0828560900355</v>
+        <v>3.017299660580292</v>
       </c>
       <c r="I10">
-        <v>3.872324092016694</v>
+        <v>3.604061307279739</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.09752503220838</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.7656517060954</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.484773088629947</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.898380512829786</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.167975896491</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>6.976537526940822</v>
       </c>
       <c r="Q10">
-        <v>15.44422833104606</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.4749265760828</v>
+      </c>
+      <c r="R10">
+        <v>14.15714150103298</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.06280360374938</v>
+        <v>16.18974857502158</v>
       </c>
       <c r="C11">
-        <v>23.67909720321394</v>
+        <v>8.242608898262672</v>
       </c>
       <c r="D11">
-        <v>5.319755378876647</v>
+        <v>4.508059262166806</v>
       </c>
       <c r="E11">
-        <v>28.3645749766292</v>
+        <v>6.674445389784032</v>
       </c>
       <c r="F11">
-        <v>19.49143900051977</v>
+        <v>27.65674957539888</v>
       </c>
       <c r="G11">
-        <v>2.051789214662098</v>
+        <v>36.77843692187525</v>
       </c>
       <c r="H11">
-        <v>4.451631542486619</v>
+        <v>3.69578085901365</v>
       </c>
       <c r="I11">
-        <v>3.959039045160723</v>
+        <v>3.567204606546295</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.33376754791513</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.94755743019409</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.482069544880231</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.857371919801251</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.37548035126183</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.545538156729245</v>
       </c>
       <c r="Q11">
-        <v>14.22126316644512</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>11.15788918556824</v>
+      </c>
+      <c r="R11">
+        <v>13.90045726599666</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.42548808711483</v>
+        <v>16.05993366832084</v>
       </c>
       <c r="C12">
-        <v>23.9023462235017</v>
+        <v>8.421312933935086</v>
       </c>
       <c r="D12">
-        <v>5.642827013362487</v>
+        <v>4.386235389072616</v>
       </c>
       <c r="E12">
-        <v>22.41126104158498</v>
+        <v>6.446699039731269</v>
       </c>
       <c r="F12">
-        <v>18.26442248682248</v>
+        <v>26.61100595475684</v>
       </c>
       <c r="G12">
-        <v>2.051750605528799</v>
+        <v>35.69629618380874</v>
       </c>
       <c r="H12">
-        <v>5.267815255078704</v>
+        <v>4.828721341349636</v>
       </c>
       <c r="I12">
-        <v>3.968982522168912</v>
+        <v>3.562201012370565</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.90117668047583</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>18.34434845615761</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.519578723173487</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.865036572313056</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.37069383540367</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.161453516995551</v>
       </c>
       <c r="Q12">
-        <v>13.1551535732224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.79236679712687</v>
+      </c>
+      <c r="R12">
+        <v>13.77652161832116</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.32574147658034</v>
+        <v>15.75313988904309</v>
       </c>
       <c r="C13">
-        <v>23.8023350085204</v>
+        <v>8.502424882915403</v>
       </c>
       <c r="D13">
-        <v>5.904668838461662</v>
+        <v>4.201497555633778</v>
       </c>
       <c r="E13">
-        <v>16.48110235038558</v>
+        <v>6.293982325955774</v>
       </c>
       <c r="F13">
-        <v>16.90881854901085</v>
+        <v>25.65338218302156</v>
       </c>
       <c r="G13">
-        <v>2.053024761394272</v>
+        <v>34.13668971999152</v>
       </c>
       <c r="H13">
-        <v>6.295261935674344</v>
+        <v>6.110109403856411</v>
       </c>
       <c r="I13">
-        <v>3.922986396371375</v>
+        <v>3.59560897679849</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.72315486631342</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>17.85196527556955</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.580290011108862</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.905611504013019</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.21005950896845</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.799472579915975</v>
       </c>
       <c r="Q13">
-        <v>12.08345473812526</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.36038421299661</v>
+      </c>
+      <c r="R13">
+        <v>13.73379923340641</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.04587492091814</v>
+        <v>15.44902378291161</v>
       </c>
       <c r="C14">
-        <v>23.59796749859168</v>
+        <v>8.521234650977282</v>
       </c>
       <c r="D14">
-        <v>6.064911838226821</v>
+        <v>4.045007622479772</v>
       </c>
       <c r="E14">
-        <v>12.39948689670872</v>
+        <v>6.239383075121724</v>
       </c>
       <c r="F14">
-        <v>15.87950193874549</v>
+        <v>25.01017563030875</v>
       </c>
       <c r="G14">
-        <v>2.054486513402981</v>
+        <v>32.82785958429626</v>
       </c>
       <c r="H14">
-        <v>7.098170924744764</v>
+        <v>7.053224893508508</v>
       </c>
       <c r="I14">
-        <v>3.867096236766066</v>
+        <v>3.639344363690138</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.69371229307272</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>17.54998948470438</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.63468012505952</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.953468325493275</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.02356626046138</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.565002387220189</v>
       </c>
       <c r="Q14">
-        <v>11.32485027251851</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.02370105205642</v>
+      </c>
+      <c r="R14">
+        <v>13.73779875750376</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.8771560147254</v>
+        <v>15.32964281293865</v>
       </c>
       <c r="C15">
-        <v>23.49405501822589</v>
+        <v>8.510542612019147</v>
       </c>
       <c r="D15">
-        <v>6.093011043100423</v>
+        <v>3.996246996993316</v>
       </c>
       <c r="E15">
-        <v>11.41723285621635</v>
+        <v>6.231374141557457</v>
       </c>
       <c r="F15">
-        <v>15.5867530759949</v>
+        <v>24.85886435546338</v>
       </c>
       <c r="G15">
-        <v>2.055159410205087</v>
+        <v>32.40940292848963</v>
       </c>
       <c r="H15">
-        <v>7.282752320104646</v>
+        <v>7.277294906243253</v>
       </c>
       <c r="I15">
-        <v>3.841502725540322</v>
+        <v>3.663041628414851</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.72500123853354</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.48908252194992</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.656209913136862</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.965047599511982</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>12.94197712030948</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.511287433642853</v>
       </c>
       <c r="Q15">
-        <v>11.1299896727916</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.926362204823759</v>
+      </c>
+      <c r="R15">
+        <v>13.75089218261749</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.90608954675489</v>
+        <v>14.95034529847769</v>
       </c>
       <c r="C16">
-        <v>22.82702198544147</v>
+        <v>8.289366184347433</v>
       </c>
       <c r="D16">
-        <v>5.945605588702913</v>
+        <v>3.895502621149168</v>
       </c>
       <c r="E16">
-        <v>11.28027543478703</v>
+        <v>6.206163247078312</v>
       </c>
       <c r="F16">
-        <v>15.37602402775759</v>
+        <v>24.99446537456986</v>
       </c>
       <c r="G16">
-        <v>2.058301267800048</v>
+        <v>31.75773883364213</v>
       </c>
       <c r="H16">
-        <v>7.001793318481235</v>
+        <v>7.11111006014056</v>
       </c>
       <c r="I16">
-        <v>3.713436795145757</v>
+        <v>3.755464511597865</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.08884762422375</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.6598277641243</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.741940708319861</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.927707094435649</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>12.60023726874335</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.513934865613289</v>
       </c>
       <c r="Q16">
-        <v>11.15774339611703</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.80258861570317</v>
+      </c>
+      <c r="R16">
+        <v>13.86217892919615</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.29981657985098</v>
+        <v>14.81677050260253</v>
       </c>
       <c r="C17">
-        <v>22.41983437938699</v>
+        <v>8.095589165443803</v>
       </c>
       <c r="D17">
-        <v>5.742303216938881</v>
+        <v>3.908159007500185</v>
       </c>
       <c r="E17">
-        <v>13.38635553275821</v>
+        <v>6.20317051441334</v>
       </c>
       <c r="F17">
-        <v>15.7802112669253</v>
+        <v>25.42499834085323</v>
       </c>
       <c r="G17">
-        <v>2.059961030497345</v>
+        <v>32.0405050887835</v>
       </c>
       <c r="H17">
-        <v>6.307931783648366</v>
+        <v>6.458187177645303</v>
       </c>
       <c r="I17">
-        <v>3.644269112860384</v>
+        <v>3.804569673274551</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.3554278906956</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>17.9425322092646</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.788560701592273</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.870288817534688</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>12.42874774407082</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.636316532852216</v>
       </c>
       <c r="Q17">
-        <v>11.58299135364639</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.888781014759736</v>
+      </c>
+      <c r="R17">
+        <v>13.9493247708933</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.95452436606275</v>
+        <v>14.90613338924178</v>
       </c>
       <c r="C18">
-        <v>22.16444665626625</v>
+        <v>7.905197333085505</v>
       </c>
       <c r="D18">
-        <v>5.465780429740172</v>
+        <v>4.007948298601239</v>
       </c>
       <c r="E18">
-        <v>17.95867208990727</v>
+        <v>6.271396305715757</v>
       </c>
       <c r="F18">
-        <v>16.78554409291046</v>
+        <v>26.21661658434651</v>
       </c>
       <c r="G18">
-        <v>2.060395421184307</v>
+        <v>33.06218835037387</v>
       </c>
       <c r="H18">
-        <v>5.266155076833628</v>
+        <v>5.367607734806747</v>
       </c>
       <c r="I18">
-        <v>3.619276282305147</v>
+        <v>3.809210087002195</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.63959202477928</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.39548987883411</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.786829003649968</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.81343466395067</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.40299659137866</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.893227416680973</v>
       </c>
       <c r="Q18">
-        <v>12.42595252609114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.17120254853888</v>
+      </c>
+      <c r="R18">
+        <v>14.03823877579911</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.85164769548753</v>
+        <v>15.14076243209991</v>
       </c>
       <c r="C19">
-        <v>22.13903500602907</v>
+        <v>7.773245542493957</v>
       </c>
       <c r="D19">
-        <v>5.173506130908312</v>
+        <v>4.173263257433065</v>
       </c>
       <c r="E19">
-        <v>24.24597306498533</v>
+        <v>6.464094474372074</v>
       </c>
       <c r="F19">
-        <v>18.11461374072026</v>
+        <v>27.20847787732457</v>
       </c>
       <c r="G19">
-        <v>2.059659617645809</v>
+        <v>34.46808126454236</v>
       </c>
       <c r="H19">
-        <v>4.278060908810593</v>
+        <v>4.167843339111248</v>
       </c>
       <c r="I19">
-        <v>3.643304718169249</v>
+        <v>3.794471669404633</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.93120440199532</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.9340452970382</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.739943333124024</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.796789151598439</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.49605452249944</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.270365446907523</v>
       </c>
       <c r="Q19">
-        <v>13.49383433671839</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.5841407860961</v>
+      </c>
+      <c r="R19">
+        <v>14.13051855363249</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.43636915149335</v>
+        <v>15.8121629064606</v>
       </c>
       <c r="C20">
-        <v>22.61293314624111</v>
+        <v>7.76250094241298</v>
       </c>
       <c r="D20">
-        <v>4.829660403423384</v>
+        <v>4.498923360506713</v>
       </c>
       <c r="E20">
-        <v>34.40385939798826</v>
+        <v>6.966466371560094</v>
       </c>
       <c r="F20">
-        <v>20.3946872154569</v>
+        <v>28.79458424681677</v>
       </c>
       <c r="G20">
-        <v>2.0556477065682</v>
+        <v>37.01507374588323</v>
       </c>
       <c r="H20">
-        <v>3.977166495449919</v>
+        <v>3.09233684136471</v>
       </c>
       <c r="I20">
-        <v>3.792827574933824</v>
+        <v>3.691636034240759</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.25014274375246</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.74325267710852</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.561212341528901</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.88134576984053</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>12.92402184085698</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>6.940871945724422</v>
       </c>
       <c r="Q20">
-        <v>15.24019517860266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>11.3435173104594</v>
+      </c>
+      <c r="R20">
+        <v>14.22033894672845</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.2128873691445</v>
+        <v>16.60068612259019</v>
       </c>
       <c r="C21">
-        <v>23.87180592760401</v>
+        <v>8.122198631841851</v>
       </c>
       <c r="D21">
-        <v>4.963924874935277</v>
+        <v>4.791162249932286</v>
       </c>
       <c r="E21">
-        <v>37.23156527326921</v>
+        <v>7.161936986728586</v>
       </c>
       <c r="F21">
-        <v>21.41888838623526</v>
+        <v>29.00048133562219</v>
       </c>
       <c r="G21">
-        <v>2.049227471009077</v>
+        <v>39.20982762905307</v>
       </c>
       <c r="H21">
-        <v>4.331854164063795</v>
+        <v>2.850351199571462</v>
       </c>
       <c r="I21">
-        <v>4.05173183932555</v>
+        <v>3.517419487414507</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.49560606578769</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>19.66379720490491</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.377255766839073</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.935959315648703</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.58850827899247</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.158829274587602</v>
       </c>
       <c r="Q21">
-        <v>15.78587279155189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.77165317265679</v>
+      </c>
+      <c r="R21">
+        <v>14.00859472263523</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.32256361032284</v>
+        <v>17.08615477828965</v>
       </c>
       <c r="C22">
-        <v>24.6138801197208</v>
+        <v>8.333533171966199</v>
       </c>
       <c r="D22">
-        <v>5.059435747161129</v>
+        <v>4.968090004913193</v>
       </c>
       <c r="E22">
-        <v>38.57128553915183</v>
+        <v>7.266155693125781</v>
       </c>
       <c r="F22">
-        <v>22.03675548966449</v>
+        <v>29.07439765868701</v>
       </c>
       <c r="G22">
-        <v>2.045186385304464</v>
+        <v>40.69706547912519</v>
       </c>
       <c r="H22">
-        <v>4.540833089149837</v>
+        <v>2.706032789215751</v>
       </c>
       <c r="I22">
-        <v>4.212966268023601</v>
+        <v>3.396758072405325</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.98743358248057</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>19.58448406150946</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.302162873861992</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.966264293386652</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>13.99194313138024</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.264595092309127</v>
       </c>
       <c r="Q22">
-        <v>16.11096486298121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>12.01518588545697</v>
+      </c>
+      <c r="R22">
+        <v>13.86617254546204</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.73534804202202</v>
+        <v>16.85532147516448</v>
       </c>
       <c r="C23">
-        <v>24.17410756943924</v>
+        <v>8.21836942286842</v>
       </c>
       <c r="D23">
-        <v>5.001185173529103</v>
+        <v>4.858637666385681</v>
       </c>
       <c r="E23">
-        <v>37.86180514530616</v>
+        <v>7.209302490354569</v>
       </c>
       <c r="F23">
-        <v>21.75145750447885</v>
+        <v>29.1089015528303</v>
       </c>
       <c r="G23">
-        <v>2.047321382313501</v>
+        <v>39.80052355831379</v>
       </c>
       <c r="H23">
-        <v>4.430018046149989</v>
+        <v>2.780510718771596</v>
       </c>
       <c r="I23">
-        <v>4.124763455075183</v>
+        <v>3.447838989965248</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.35193969095913</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>19.67602280588963</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.333457494342078</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.951962434252343</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.79356091534728</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.204631111188609</v>
       </c>
       <c r="Q23">
-        <v>15.97437081622241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.8929019621963</v>
+      </c>
+      <c r="R23">
+        <v>13.95131203920156</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.41053052578191</v>
+        <v>15.85615318276695</v>
       </c>
       <c r="C24">
-        <v>22.52351586716033</v>
+        <v>7.715660728801628</v>
       </c>
       <c r="D24">
-        <v>4.786763194111646</v>
+        <v>4.507311700419803</v>
       </c>
       <c r="E24">
-        <v>35.06520157565711</v>
+        <v>7.008031708756823</v>
       </c>
       <c r="F24">
-        <v>20.60081722598498</v>
+        <v>28.95149891146028</v>
       </c>
       <c r="G24">
-        <v>2.055542008347234</v>
+        <v>37.24115908475289</v>
       </c>
       <c r="H24">
-        <v>4.002604939480796</v>
+        <v>3.076175521382972</v>
       </c>
       <c r="I24">
-        <v>3.79065573902421</v>
+        <v>3.671920290184894</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.30379807025335</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.84401567838697</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.552089583089798</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.891622704550067</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>12.93279022285787</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>6.97941228791778</v>
       </c>
       <c r="Q24">
-        <v>15.41479316140643</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11.38844257234368</v>
+      </c>
+      <c r="R24">
+        <v>14.24339240988659</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.68629855093528</v>
+        <v>14.56911256843852</v>
       </c>
       <c r="C25">
-        <v>20.61659098146711</v>
+        <v>6.963840793878753</v>
       </c>
       <c r="D25">
-        <v>4.543036311527937</v>
+        <v>4.238207168288398</v>
       </c>
       <c r="E25">
-        <v>31.81296454054986</v>
+        <v>6.817224346093602</v>
       </c>
       <c r="F25">
-        <v>19.36590674883738</v>
+        <v>28.31969682849653</v>
       </c>
       <c r="G25">
-        <v>2.064667127147425</v>
+        <v>36.19682774622734</v>
       </c>
       <c r="H25">
-        <v>3.52510738843625</v>
+        <v>3.423971417139718</v>
       </c>
       <c r="I25">
-        <v>3.422478011629868</v>
+        <v>3.940931813603531</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.27114549060886</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.75571662275011</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.986487417758505</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.815796221365874</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>11.77878653521828</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.727327375212464</v>
       </c>
       <c r="Q25">
-        <v>14.85062811068665</v>
+        <v>10.77177887081071</v>
+      </c>
+      <c r="R25">
+        <v>14.50476952336798</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
